--- a/Malam2021/wwwroot/data/arc/departments.xlsx
+++ b/Malam2021/wwwroot/data/arc/departments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Exames\MalamNetCoreWebApi\MalamNetCoreWebApi\wwwroot\data\arc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Exames\Malam2021\Malam2021\wwwroot\data\arc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5659C84-7A8C-42DD-8D36-7E35E3363C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AD937-369E-4597-8A3A-2D23F0547353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1420" windowWidth="17840" windowHeight="8270" xr2:uid="{863460A7-E262-4911-94F4-0219A6AFB3F1}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,8 +471,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -484,21 +483,20 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <f>A5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
